--- a/main/regions.xlsx
+++ b/main/regions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gry\Medieval II Total War\mods\MTW2_Tools\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB71F1-9EC4-4CCD-BABF-3E84838CAE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA0E2D-2BB1-4F58-9A83-8B77C84B27E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,24 +488,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,6 +495,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,12 +1624,12 @@
   <dimension ref="A1:AX700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1675,16 +1674,16 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="28" t="s">
         <v>54</v>
       </c>
@@ -1730,21 +1729,21 @@
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
@@ -1800,37 +1799,37 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="13"/>
     </row>
@@ -1840,64 +1839,64 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="24" t="s">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="23" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="25" t="s">
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="26" t="s">
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="24" t="s">
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="27" t="s">
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="13"/>
     </row>
@@ -3203,6 +3202,9 @@
       <c r="AX25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3254,6 +3256,9 @@
       <c r="AX26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3305,6 +3310,9 @@
       <c r="AX27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3356,6 +3364,9 @@
       <c r="AX28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3407,6 +3418,9 @@
       <c r="AX29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3458,6 +3472,9 @@
       <c r="AX30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3509,6 +3526,9 @@
       <c r="AX31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3559,7 +3579,10 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3610,7 +3633,10 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3661,7 +3687,10 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3712,7 +3741,10 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3763,7 +3795,10 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3814,7 +3849,10 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3865,7 +3903,10 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3916,7 +3957,10 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3967,7 +4011,10 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4018,7 +4065,10 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4069,7 +4119,10 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4120,7 +4173,10 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4171,7 +4227,10 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4222,7 +4281,10 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4273,7 +4335,10 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4324,7 +4389,10 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4375,7 +4443,10 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4426,7 +4497,10 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4477,7 +4551,10 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4528,7 +4605,10 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4579,7 +4659,10 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4630,7 +4713,10 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4681,7 +4767,10 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4732,7 +4821,10 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
     </row>
-    <row r="56" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4783,7 +4875,10 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
     </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4834,7 +4929,10 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
     </row>
-    <row r="58" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4885,7 +4983,10 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4936,7 +5037,10 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4987,7 +5091,10 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5038,7 +5145,10 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5089,7 +5199,10 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5140,7 +5253,10 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5191,7 +5307,10 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -5242,7 +5361,10 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
     </row>
-    <row r="66" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -5293,7 +5415,10 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -5344,7 +5469,10 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -5395,7 +5523,10 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
     </row>
-    <row r="69" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -5446,7 +5577,10 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="70" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -5497,7 +5631,10 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
     </row>
-    <row r="71" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -5548,7 +5685,10 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -5599,7 +5739,10 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -5650,7 +5793,10 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
     </row>
-    <row r="74" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5701,7 +5847,10 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>70</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -5752,7 +5901,10 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -5803,7 +5955,10 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5854,7 +6009,10 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5905,7 +6063,10 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5956,7 +6117,10 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
     </row>
-    <row r="80" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>75</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6007,7 +6171,10 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
     </row>
-    <row r="81" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6058,7 +6225,10 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
     </row>
-    <row r="82" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>77</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6109,7 +6279,10 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
     </row>
-    <row r="83" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>78</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6160,7 +6333,10 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
     </row>
-    <row r="84" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>79</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6211,7 +6387,10 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6262,7 +6441,10 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>81</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6313,7 +6495,10 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>82</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6364,7 +6549,10 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
     </row>
-    <row r="88" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>83</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6415,7 +6603,10 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>84</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6466,7 +6657,10 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
     </row>
-    <row r="90" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6517,7 +6711,10 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
     </row>
-    <row r="91" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>86</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6568,7 +6765,10 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
     </row>
-    <row r="92" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>87</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6619,7 +6819,10 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
     </row>
-    <row r="93" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>88</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6670,7 +6873,10 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
     </row>
-    <row r="94" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>89</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6721,7 +6927,10 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
     </row>
-    <row r="95" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>90</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6772,7 +6981,10 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
     </row>
-    <row r="96" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>91</v>
+      </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6823,7 +7035,10 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
     </row>
-    <row r="97" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>92</v>
+      </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6874,7 +7089,10 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
     </row>
-    <row r="98" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>93</v>
+      </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6925,7 +7143,10 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
     </row>
-    <row r="99" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>94</v>
+      </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6976,7 +7197,10 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
     </row>
-    <row r="100" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>95</v>
+      </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7027,7 +7251,10 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
     </row>
-    <row r="101" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>96</v>
+      </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7078,7 +7305,10 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
     </row>
-    <row r="102" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>97</v>
+      </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7129,7 +7359,10 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
     </row>
-    <row r="103" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>98</v>
+      </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7180,7 +7413,10 @@
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
     </row>
-    <row r="104" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>99</v>
+      </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7231,7 +7467,10 @@
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
     </row>
-    <row r="105" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>100</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7282,7 +7521,10 @@
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
     </row>
-    <row r="106" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>101</v>
+      </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7333,7 +7575,10 @@
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
     </row>
-    <row r="107" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>102</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7384,7 +7629,10 @@
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
     </row>
-    <row r="108" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>103</v>
+      </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7435,7 +7683,10 @@
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
     </row>
-    <row r="109" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>104</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7486,7 +7737,10 @@
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
     </row>
-    <row r="110" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>105</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7537,7 +7791,10 @@
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
     </row>
-    <row r="111" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>106</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -7588,7 +7845,10 @@
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
     </row>
-    <row r="112" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>107</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -7639,7 +7899,10 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
     </row>
-    <row r="113" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>108</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -7690,7 +7953,10 @@
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
     </row>
-    <row r="114" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>109</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7741,7 +8007,10 @@
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
     </row>
-    <row r="115" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>110</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7792,7 +8061,10 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
     </row>
-    <row r="116" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>111</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7843,7 +8115,10 @@
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
     </row>
-    <row r="117" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>112</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7894,7 +8169,10 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
     </row>
-    <row r="118" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>113</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7945,7 +8223,10 @@
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
     </row>
-    <row r="119" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>114</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7996,7 +8277,10 @@
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
     </row>
-    <row r="120" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>115</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8047,7 +8331,10 @@
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
     </row>
-    <row r="121" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>116</v>
+      </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8098,7 +8385,10 @@
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
     </row>
-    <row r="122" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>117</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8149,7 +8439,10 @@
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
     </row>
-    <row r="123" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>118</v>
+      </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8200,7 +8493,10 @@
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
     </row>
-    <row r="124" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>119</v>
+      </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8251,7 +8547,10 @@
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
     </row>
-    <row r="125" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>120</v>
+      </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8302,7 +8601,10 @@
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
     </row>
-    <row r="126" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>121</v>
+      </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8353,7 +8655,10 @@
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
     </row>
-    <row r="127" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>122</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8404,7 +8709,10 @@
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
     </row>
-    <row r="128" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>123</v>
+      </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8455,7 +8763,10 @@
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
     </row>
-    <row r="129" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>124</v>
+      </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8506,7 +8817,10 @@
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
     </row>
-    <row r="130" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>125</v>
+      </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8557,7 +8871,10 @@
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
     </row>
-    <row r="131" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>126</v>
+      </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8608,7 +8925,10 @@
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
     </row>
-    <row r="132" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>127</v>
+      </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8659,7 +8979,10 @@
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
     </row>
-    <row r="133" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>128</v>
+      </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8710,7 +9033,10 @@
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
     </row>
-    <row r="134" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>129</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8761,7 +9087,10 @@
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
     </row>
-    <row r="135" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>130</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8812,7 +9141,10 @@
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
     </row>
-    <row r="136" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>131</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8863,7 +9195,10 @@
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
     </row>
-    <row r="137" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>132</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8914,7 +9249,10 @@
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
     </row>
-    <row r="138" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>133</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8965,7 +9303,10 @@
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
     </row>
-    <row r="139" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>134</v>
+      </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -9016,7 +9357,10 @@
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
     </row>
-    <row r="140" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>135</v>
+      </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9067,7 +9411,10 @@
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
     </row>
-    <row r="141" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>136</v>
+      </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -9118,7 +9465,10 @@
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
     </row>
-    <row r="142" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>137</v>
+      </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9169,7 +9519,10 @@
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
     </row>
-    <row r="143" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>138</v>
+      </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9220,7 +9573,10 @@
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
     </row>
-    <row r="144" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>139</v>
+      </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -9271,7 +9627,10 @@
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
     </row>
-    <row r="145" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>140</v>
+      </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9322,7 +9681,10 @@
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
     </row>
-    <row r="146" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>141</v>
+      </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -9373,7 +9735,10 @@
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
     </row>
-    <row r="147" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>142</v>
+      </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -9424,7 +9789,10 @@
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
     </row>
-    <row r="148" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>143</v>
+      </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -9475,7 +9843,10 @@
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
     </row>
-    <row r="149" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>144</v>
+      </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -9526,7 +9897,10 @@
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
     </row>
-    <row r="150" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>145</v>
+      </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -9577,7 +9951,10 @@
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
     </row>
-    <row r="151" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>146</v>
+      </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9628,7 +10005,10 @@
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
     </row>
-    <row r="152" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>147</v>
+      </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9679,7 +10059,10 @@
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
     </row>
-    <row r="153" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>148</v>
+      </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9730,7 +10113,10 @@
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
     </row>
-    <row r="154" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>149</v>
+      </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9781,7 +10167,10 @@
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
     </row>
-    <row r="155" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>150</v>
+      </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9832,7 +10221,10 @@
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
     </row>
-    <row r="156" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>151</v>
+      </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9883,7 +10275,10 @@
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
     </row>
-    <row r="157" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>152</v>
+      </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9934,7 +10329,10 @@
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
     </row>
-    <row r="158" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>153</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9985,7 +10383,10 @@
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
     </row>
-    <row r="159" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>154</v>
+      </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -10036,7 +10437,10 @@
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
     </row>
-    <row r="160" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>155</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -10087,7 +10491,10 @@
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
     </row>
-    <row r="161" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>156</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -10138,7 +10545,10 @@
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
     </row>
-    <row r="162" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>157</v>
+      </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -10189,7 +10599,10 @@
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
     </row>
-    <row r="163" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>158</v>
+      </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -10240,7 +10653,10 @@
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
     </row>
-    <row r="164" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>159</v>
+      </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -10291,7 +10707,10 @@
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
     </row>
-    <row r="165" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>160</v>
+      </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -10342,7 +10761,10 @@
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
     </row>
-    <row r="166" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>161</v>
+      </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -10393,7 +10815,10 @@
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
     </row>
-    <row r="167" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>162</v>
+      </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -10444,7 +10869,10 @@
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
     </row>
-    <row r="168" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>163</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -10495,7 +10923,10 @@
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
     </row>
-    <row r="169" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>164</v>
+      </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -10546,7 +10977,10 @@
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
     </row>
-    <row r="170" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>165</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -10597,7 +11031,10 @@
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
     </row>
-    <row r="171" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>166</v>
+      </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -10648,7 +11085,10 @@
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
     </row>
-    <row r="172" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>167</v>
+      </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -10699,7 +11139,10 @@
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
     </row>
-    <row r="173" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>168</v>
+      </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -10750,7 +11193,10 @@
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
     </row>
-    <row r="174" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>169</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10801,7 +11247,10 @@
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
     </row>
-    <row r="175" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>170</v>
+      </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10852,7 +11301,10 @@
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
     </row>
-    <row r="176" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>171</v>
+      </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10903,7 +11355,10 @@
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
     </row>
-    <row r="177" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>172</v>
+      </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10954,7 +11409,10 @@
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
     </row>
-    <row r="178" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>173</v>
+      </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -11005,7 +11463,10 @@
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
     </row>
-    <row r="179" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>174</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -11056,7 +11517,10 @@
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
     </row>
-    <row r="180" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>175</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -11107,7 +11571,10 @@
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
     </row>
-    <row r="181" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>176</v>
+      </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -11158,7 +11625,10 @@
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
     </row>
-    <row r="182" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>177</v>
+      </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -11209,7 +11679,10 @@
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
     </row>
-    <row r="183" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>178</v>
+      </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -11260,7 +11733,10 @@
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
     </row>
-    <row r="184" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>179</v>
+      </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -11311,7 +11787,10 @@
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
     </row>
-    <row r="185" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>180</v>
+      </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -11362,7 +11841,10 @@
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
     </row>
-    <row r="186" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>181</v>
+      </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -11413,7 +11895,10 @@
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
     </row>
-    <row r="187" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>182</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -11464,7 +11949,10 @@
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
     </row>
-    <row r="188" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>183</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -11515,7 +12003,10 @@
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
     </row>
-    <row r="189" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>184</v>
+      </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -11566,7 +12057,10 @@
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
     </row>
-    <row r="190" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>185</v>
+      </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -11617,7 +12111,10 @@
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
     </row>
-    <row r="191" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>186</v>
+      </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -11668,7 +12165,10 @@
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
     </row>
-    <row r="192" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>187</v>
+      </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -11719,7 +12219,10 @@
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
     </row>
-    <row r="193" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>188</v>
+      </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -11770,7 +12273,10 @@
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
     </row>
-    <row r="194" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>189</v>
+      </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -11821,7 +12327,10 @@
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
     </row>
-    <row r="195" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>190</v>
+      </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -11872,7 +12381,10 @@
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
     </row>
-    <row r="196" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>191</v>
+      </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -11923,7 +12435,10 @@
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
     </row>
-    <row r="197" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>192</v>
+      </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -11974,7 +12489,10 @@
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
     </row>
-    <row r="198" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>193</v>
+      </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -12025,7 +12543,10 @@
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
     </row>
-    <row r="199" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>194</v>
+      </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -12076,7 +12597,10 @@
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
     </row>
-    <row r="200" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>195</v>
+      </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -12127,7 +12651,10 @@
       <c r="AW200" s="1"/>
       <c r="AX200" s="1"/>
     </row>
-    <row r="201" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>196</v>
+      </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -12178,7 +12705,10 @@
       <c r="AW201" s="1"/>
       <c r="AX201" s="1"/>
     </row>
-    <row r="202" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>197</v>
+      </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -12229,7 +12759,10 @@
       <c r="AW202" s="1"/>
       <c r="AX202" s="1"/>
     </row>
-    <row r="203" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>198</v>
+      </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -12280,7 +12813,10 @@
       <c r="AW203" s="1"/>
       <c r="AX203" s="1"/>
     </row>
-    <row r="204" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>199</v>
+      </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -12331,7 +12867,10 @@
       <c r="AW204" s="1"/>
       <c r="AX204" s="1"/>
     </row>
-    <row r="205" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>200</v>
+      </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -12382,7 +12921,10 @@
       <c r="AW205" s="1"/>
       <c r="AX205" s="1"/>
     </row>
-    <row r="206" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>201</v>
+      </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -12433,7 +12975,10 @@
       <c r="AW206" s="1"/>
       <c r="AX206" s="1"/>
     </row>
-    <row r="207" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>202</v>
+      </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -12484,7 +13029,10 @@
       <c r="AW207" s="1"/>
       <c r="AX207" s="1"/>
     </row>
-    <row r="208" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>203</v>
+      </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -12535,7 +13083,10 @@
       <c r="AW208" s="1"/>
       <c r="AX208" s="1"/>
     </row>
-    <row r="209" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>204</v>
+      </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -12586,7 +13137,10 @@
       <c r="AW209" s="1"/>
       <c r="AX209" s="1"/>
     </row>
-    <row r="210" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>205</v>
+      </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -12637,7 +13191,10 @@
       <c r="AW210" s="1"/>
       <c r="AX210" s="1"/>
     </row>
-    <row r="211" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>206</v>
+      </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -12688,7 +13245,10 @@
       <c r="AW211" s="1"/>
       <c r="AX211" s="1"/>
     </row>
-    <row r="212" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>207</v>
+      </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -12739,7 +13299,10 @@
       <c r="AW212" s="1"/>
       <c r="AX212" s="1"/>
     </row>
-    <row r="213" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>208</v>
+      </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -12790,7 +13353,10 @@
       <c r="AW213" s="1"/>
       <c r="AX213" s="1"/>
     </row>
-    <row r="214" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>209</v>
+      </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -12841,7 +13407,10 @@
       <c r="AW214" s="1"/>
       <c r="AX214" s="1"/>
     </row>
-    <row r="215" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>210</v>
+      </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -12892,7 +13461,10 @@
       <c r="AW215" s="1"/>
       <c r="AX215" s="1"/>
     </row>
-    <row r="216" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>211</v>
+      </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -12943,7 +13515,10 @@
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
     </row>
-    <row r="217" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>212</v>
+      </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -12994,7 +13569,10 @@
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
     </row>
-    <row r="218" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>213</v>
+      </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -13045,7 +13623,10 @@
       <c r="AW218" s="1"/>
       <c r="AX218" s="1"/>
     </row>
-    <row r="219" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>214</v>
+      </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -13096,7 +13677,10 @@
       <c r="AW219" s="1"/>
       <c r="AX219" s="1"/>
     </row>
-    <row r="220" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>215</v>
+      </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -13147,7 +13731,10 @@
       <c r="AW220" s="1"/>
       <c r="AX220" s="1"/>
     </row>
-    <row r="221" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>216</v>
+      </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -13198,7 +13785,10 @@
       <c r="AW221" s="1"/>
       <c r="AX221" s="1"/>
     </row>
-    <row r="222" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>217</v>
+      </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -13249,7 +13839,10 @@
       <c r="AW222" s="1"/>
       <c r="AX222" s="1"/>
     </row>
-    <row r="223" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>218</v>
+      </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -13300,7 +13893,10 @@
       <c r="AW223" s="1"/>
       <c r="AX223" s="1"/>
     </row>
-    <row r="224" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>219</v>
+      </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -13351,7 +13947,10 @@
       <c r="AW224" s="1"/>
       <c r="AX224" s="1"/>
     </row>
-    <row r="225" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>220</v>
+      </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -13402,7 +14001,10 @@
       <c r="AW225" s="1"/>
       <c r="AX225" s="1"/>
     </row>
-    <row r="226" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>221</v>
+      </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -13453,7 +14055,10 @@
       <c r="AW226" s="1"/>
       <c r="AX226" s="1"/>
     </row>
-    <row r="227" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>222</v>
+      </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -13504,7 +14109,10 @@
       <c r="AW227" s="1"/>
       <c r="AX227" s="1"/>
     </row>
-    <row r="228" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>223</v>
+      </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -13555,7 +14163,10 @@
       <c r="AW228" s="1"/>
       <c r="AX228" s="1"/>
     </row>
-    <row r="229" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>224</v>
+      </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -13606,7 +14217,10 @@
       <c r="AW229" s="1"/>
       <c r="AX229" s="1"/>
     </row>
-    <row r="230" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>225</v>
+      </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -13657,7 +14271,10 @@
       <c r="AW230" s="1"/>
       <c r="AX230" s="1"/>
     </row>
-    <row r="231" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>226</v>
+      </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -13708,7 +14325,10 @@
       <c r="AW231" s="1"/>
       <c r="AX231" s="1"/>
     </row>
-    <row r="232" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>227</v>
+      </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -13759,7 +14379,10 @@
       <c r="AW232" s="1"/>
       <c r="AX232" s="1"/>
     </row>
-    <row r="233" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>228</v>
+      </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -13810,7 +14433,10 @@
       <c r="AW233" s="1"/>
       <c r="AX233" s="1"/>
     </row>
-    <row r="234" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>229</v>
+      </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -13861,7 +14487,10 @@
       <c r="AW234" s="1"/>
       <c r="AX234" s="1"/>
     </row>
-    <row r="235" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>230</v>
+      </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -13912,7 +14541,10 @@
       <c r="AW235" s="1"/>
       <c r="AX235" s="1"/>
     </row>
-    <row r="236" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>231</v>
+      </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -13963,7 +14595,10 @@
       <c r="AW236" s="1"/>
       <c r="AX236" s="1"/>
     </row>
-    <row r="237" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>232</v>
+      </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -14014,7 +14649,10 @@
       <c r="AW237" s="1"/>
       <c r="AX237" s="1"/>
     </row>
-    <row r="238" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>233</v>
+      </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -14065,7 +14703,10 @@
       <c r="AW238" s="1"/>
       <c r="AX238" s="1"/>
     </row>
-    <row r="239" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>234</v>
+      </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -14116,7 +14757,10 @@
       <c r="AW239" s="1"/>
       <c r="AX239" s="1"/>
     </row>
-    <row r="240" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>235</v>
+      </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -14167,7 +14811,10 @@
       <c r="AW240" s="1"/>
       <c r="AX240" s="1"/>
     </row>
-    <row r="241" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>236</v>
+      </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -14218,7 +14865,10 @@
       <c r="AW241" s="1"/>
       <c r="AX241" s="1"/>
     </row>
-    <row r="242" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>237</v>
+      </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -14269,7 +14919,10 @@
       <c r="AW242" s="1"/>
       <c r="AX242" s="1"/>
     </row>
-    <row r="243" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>238</v>
+      </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -14320,7 +14973,10 @@
       <c r="AW243" s="1"/>
       <c r="AX243" s="1"/>
     </row>
-    <row r="244" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>239</v>
+      </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -14371,7 +15027,10 @@
       <c r="AW244" s="1"/>
       <c r="AX244" s="1"/>
     </row>
-    <row r="245" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>240</v>
+      </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -14422,7 +15081,10 @@
       <c r="AW245" s="1"/>
       <c r="AX245" s="1"/>
     </row>
-    <row r="246" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>241</v>
+      </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -14473,7 +15135,10 @@
       <c r="AW246" s="1"/>
       <c r="AX246" s="1"/>
     </row>
-    <row r="247" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>242</v>
+      </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -14524,7 +15189,10 @@
       <c r="AW247" s="1"/>
       <c r="AX247" s="1"/>
     </row>
-    <row r="248" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>243</v>
+      </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -14575,7 +15243,10 @@
       <c r="AW248" s="1"/>
       <c r="AX248" s="1"/>
     </row>
-    <row r="249" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>244</v>
+      </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -14626,7 +15297,10 @@
       <c r="AW249" s="1"/>
       <c r="AX249" s="1"/>
     </row>
-    <row r="250" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>245</v>
+      </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -14677,7 +15351,10 @@
       <c r="AW250" s="1"/>
       <c r="AX250" s="1"/>
     </row>
-    <row r="251" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>246</v>
+      </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -14728,7 +15405,10 @@
       <c r="AW251" s="1"/>
       <c r="AX251" s="1"/>
     </row>
-    <row r="252" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>247</v>
+      </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -14779,7 +15459,10 @@
       <c r="AW252" s="1"/>
       <c r="AX252" s="1"/>
     </row>
-    <row r="253" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>248</v>
+      </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -14830,7 +15513,10 @@
       <c r="AW253" s="1"/>
       <c r="AX253" s="1"/>
     </row>
-    <row r="254" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>249</v>
+      </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -14881,7 +15567,10 @@
       <c r="AW254" s="1"/>
       <c r="AX254" s="1"/>
     </row>
-    <row r="255" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>250</v>
+      </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -14932,7 +15621,10 @@
       <c r="AW255" s="1"/>
       <c r="AX255" s="1"/>
     </row>
-    <row r="256" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>251</v>
+      </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -14983,7 +15675,10 @@
       <c r="AW256" s="1"/>
       <c r="AX256" s="1"/>
     </row>
-    <row r="257" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>252</v>
+      </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -15034,7 +15729,10 @@
       <c r="AW257" s="1"/>
       <c r="AX257" s="1"/>
     </row>
-    <row r="258" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>253</v>
+      </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -15085,7 +15783,10 @@
       <c r="AW258" s="1"/>
       <c r="AX258" s="1"/>
     </row>
-    <row r="259" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>254</v>
+      </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -15136,7 +15837,10 @@
       <c r="AW259" s="1"/>
       <c r="AX259" s="1"/>
     </row>
-    <row r="260" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>255</v>
+      </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -15187,7 +15891,10 @@
       <c r="AW260" s="1"/>
       <c r="AX260" s="1"/>
     </row>
-    <row r="261" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>256</v>
+      </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -15238,7 +15945,10 @@
       <c r="AW261" s="1"/>
       <c r="AX261" s="1"/>
     </row>
-    <row r="262" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>257</v>
+      </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -15289,7 +15999,10 @@
       <c r="AW262" s="1"/>
       <c r="AX262" s="1"/>
     </row>
-    <row r="263" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>258</v>
+      </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -15340,7 +16053,10 @@
       <c r="AW263" s="1"/>
       <c r="AX263" s="1"/>
     </row>
-    <row r="264" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>259</v>
+      </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -15391,7 +16107,10 @@
       <c r="AW264" s="1"/>
       <c r="AX264" s="1"/>
     </row>
-    <row r="265" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>260</v>
+      </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -15442,7 +16161,10 @@
       <c r="AW265" s="1"/>
       <c r="AX265" s="1"/>
     </row>
-    <row r="266" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>261</v>
+      </c>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -15493,7 +16215,10 @@
       <c r="AW266" s="1"/>
       <c r="AX266" s="1"/>
     </row>
-    <row r="267" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>262</v>
+      </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -15544,7 +16269,10 @@
       <c r="AW267" s="1"/>
       <c r="AX267" s="1"/>
     </row>
-    <row r="268" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>263</v>
+      </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -15595,7 +16323,10 @@
       <c r="AW268" s="1"/>
       <c r="AX268" s="1"/>
     </row>
-    <row r="269" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>264</v>
+      </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -15646,7 +16377,10 @@
       <c r="AW269" s="1"/>
       <c r="AX269" s="1"/>
     </row>
-    <row r="270" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>265</v>
+      </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -15697,7 +16431,10 @@
       <c r="AW270" s="1"/>
       <c r="AX270" s="1"/>
     </row>
-    <row r="271" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>266</v>
+      </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -15748,7 +16485,10 @@
       <c r="AW271" s="1"/>
       <c r="AX271" s="1"/>
     </row>
-    <row r="272" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>267</v>
+      </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -15799,7 +16539,10 @@
       <c r="AW272" s="1"/>
       <c r="AX272" s="1"/>
     </row>
-    <row r="273" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>268</v>
+      </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -15850,7 +16593,10 @@
       <c r="AW273" s="1"/>
       <c r="AX273" s="1"/>
     </row>
-    <row r="274" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>269</v>
+      </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -15901,7 +16647,10 @@
       <c r="AW274" s="1"/>
       <c r="AX274" s="1"/>
     </row>
-    <row r="275" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>270</v>
+      </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -15952,7 +16701,10 @@
       <c r="AW275" s="1"/>
       <c r="AX275" s="1"/>
     </row>
-    <row r="276" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>271</v>
+      </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -16003,7 +16755,10 @@
       <c r="AW276" s="1"/>
       <c r="AX276" s="1"/>
     </row>
-    <row r="277" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>272</v>
+      </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -16054,7 +16809,10 @@
       <c r="AW277" s="1"/>
       <c r="AX277" s="1"/>
     </row>
-    <row r="278" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>273</v>
+      </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -16105,7 +16863,10 @@
       <c r="AW278" s="1"/>
       <c r="AX278" s="1"/>
     </row>
-    <row r="279" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>274</v>
+      </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -16156,7 +16917,10 @@
       <c r="AW279" s="1"/>
       <c r="AX279" s="1"/>
     </row>
-    <row r="280" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>275</v>
+      </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -16207,7 +16971,10 @@
       <c r="AW280" s="1"/>
       <c r="AX280" s="1"/>
     </row>
-    <row r="281" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>276</v>
+      </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -16258,7 +17025,10 @@
       <c r="AW281" s="1"/>
       <c r="AX281" s="1"/>
     </row>
-    <row r="282" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>277</v>
+      </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -16309,7 +17079,10 @@
       <c r="AW282" s="1"/>
       <c r="AX282" s="1"/>
     </row>
-    <row r="283" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>278</v>
+      </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -16360,7 +17133,10 @@
       <c r="AW283" s="1"/>
       <c r="AX283" s="1"/>
     </row>
-    <row r="284" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>279</v>
+      </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -16411,7 +17187,10 @@
       <c r="AW284" s="1"/>
       <c r="AX284" s="1"/>
     </row>
-    <row r="285" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>280</v>
+      </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -16462,7 +17241,10 @@
       <c r="AW285" s="1"/>
       <c r="AX285" s="1"/>
     </row>
-    <row r="286" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>281</v>
+      </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -16513,7 +17295,10 @@
       <c r="AW286" s="1"/>
       <c r="AX286" s="1"/>
     </row>
-    <row r="287" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>282</v>
+      </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -16564,7 +17349,10 @@
       <c r="AW287" s="1"/>
       <c r="AX287" s="1"/>
     </row>
-    <row r="288" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>283</v>
+      </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -16615,7 +17403,10 @@
       <c r="AW288" s="1"/>
       <c r="AX288" s="1"/>
     </row>
-    <row r="289" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>284</v>
+      </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -16666,7 +17457,10 @@
       <c r="AW289" s="1"/>
       <c r="AX289" s="1"/>
     </row>
-    <row r="290" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>285</v>
+      </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -16717,7 +17511,10 @@
       <c r="AW290" s="1"/>
       <c r="AX290" s="1"/>
     </row>
-    <row r="291" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>286</v>
+      </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -16768,7 +17565,10 @@
       <c r="AW291" s="1"/>
       <c r="AX291" s="1"/>
     </row>
-    <row r="292" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>287</v>
+      </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -16819,7 +17619,10 @@
       <c r="AW292" s="1"/>
       <c r="AX292" s="1"/>
     </row>
-    <row r="293" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>288</v>
+      </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -16870,7 +17673,10 @@
       <c r="AW293" s="1"/>
       <c r="AX293" s="1"/>
     </row>
-    <row r="294" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>289</v>
+      </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -16921,7 +17727,10 @@
       <c r="AW294" s="1"/>
       <c r="AX294" s="1"/>
     </row>
-    <row r="295" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>290</v>
+      </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -16972,7 +17781,10 @@
       <c r="AW295" s="1"/>
       <c r="AX295" s="1"/>
     </row>
-    <row r="296" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>291</v>
+      </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -17023,7 +17835,10 @@
       <c r="AW296" s="1"/>
       <c r="AX296" s="1"/>
     </row>
-    <row r="297" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>292</v>
+      </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -17074,7 +17889,10 @@
       <c r="AW297" s="1"/>
       <c r="AX297" s="1"/>
     </row>
-    <row r="298" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>293</v>
+      </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -17125,7 +17943,10 @@
       <c r="AW298" s="1"/>
       <c r="AX298" s="1"/>
     </row>
-    <row r="299" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>294</v>
+      </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -17176,7 +17997,10 @@
       <c r="AW299" s="1"/>
       <c r="AX299" s="1"/>
     </row>
-    <row r="300" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>295</v>
+      </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -17227,7 +18051,7 @@
       <c r="AW300" s="1"/>
       <c r="AX300" s="1"/>
     </row>
-    <row r="301" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -17278,7 +18102,7 @@
       <c r="AW301" s="1"/>
       <c r="AX301" s="1"/>
     </row>
-    <row r="302" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -17329,7 +18153,7 @@
       <c r="AW302" s="1"/>
       <c r="AX302" s="1"/>
     </row>
-    <row r="303" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -17380,7 +18204,7 @@
       <c r="AW303" s="1"/>
       <c r="AX303" s="1"/>
     </row>
-    <row r="304" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -37629,11 +38453,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="S4:V4"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="F4:H4"/>
@@ -37642,6 +38461,11 @@
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="J1:V1"/>
     <mergeCell ref="S3:AU3"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
